--- a/goals/techs.xlsx
+++ b/goals/techs.xlsx
@@ -7,17 +7,61 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="24780" windowHeight="11895"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Personal" sheetId="1" r:id="rId1"/>
+    <sheet name="Projects - CCC" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>HornetQ</t>
+  </si>
+  <si>
+    <t>YUI 2.X</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>To Learn</t>
+  </si>
+  <si>
+    <t>Xstream</t>
+  </si>
+  <si>
+    <t>To deeper &amp; renew</t>
+  </si>
+  <si>
+    <t>JAXB</t>
+  </si>
+  <si>
+    <t>JAX-WS</t>
+  </si>
+  <si>
+    <t>Linux (core)</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +69,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,14 +99,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,25 +417,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/goals/techs.xlsx
+++ b/goals/techs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Technology</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>OSGi</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,6 +439,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/goals/techs.xlsx
+++ b/goals/techs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Technology</t>
   </si>
@@ -58,13 +58,22 @@
   </si>
   <si>
     <t>OSGi</t>
+  </si>
+  <si>
+    <t>Java Concurrency</t>
+  </si>
+  <si>
+    <t>Java Collections</t>
+  </si>
+  <si>
+    <t>!!!!!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +89,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +107,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -118,15 +139,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -420,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="D10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,44 +455,57 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/goals/techs.xlsx
+++ b/goals/techs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Technology</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>!!!!!!!</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>vaadin</t>
+  </si>
+  <si>
+    <t>Tapestry</t>
+  </si>
+  <si>
+    <t>Wicket</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="C10:D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,36 +487,56 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
